--- a/docs/Data Retrieval Protocol.xlsx
+++ b/docs/Data Retrieval Protocol.xlsx
@@ -1,18 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kobi\Google Drive\Final Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Data Retrieval Protocol" sheetId="1" r:id="rId3"/>
-    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Data Retrieval Protocol" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="125">
   <si>
     <t>Value Type</t>
   </si>
@@ -129,45 +140,333 @@
   </si>
   <si>
     <t>DateTime</t>
+  </si>
+  <si>
+    <t>loan_id</t>
+  </si>
+  <si>
+    <t>member_id</t>
+  </si>
+  <si>
+    <t>verification_status</t>
+  </si>
+  <si>
+    <t>issue_d</t>
+  </si>
+  <si>
+    <t>loan_status</t>
+  </si>
+  <si>
+    <t>pymnt_plan</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>loanDesc</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>policy_code</t>
+  </si>
+  <si>
+    <t>application_type</t>
+  </si>
+  <si>
+    <t>verification_status_joint</t>
+  </si>
+  <si>
+    <t>loans</t>
+  </si>
+  <si>
+    <t>Month+year</t>
+  </si>
+  <si>
+    <t>0 - Individual , 1 - Joint</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>sub_grade</t>
+  </si>
+  <si>
+    <t>initial_list_status</t>
+  </si>
+  <si>
+    <t>loans_lc_rating</t>
+  </si>
+  <si>
+    <t>A-G</t>
+  </si>
+  <si>
+    <t>0 - W , 1 - F</t>
+  </si>
+  <si>
+    <t>loan_amnt</t>
+  </si>
+  <si>
+    <t>funded_amnt</t>
+  </si>
+  <si>
+    <t>funded_amnt_inv</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>int_rate</t>
+  </si>
+  <si>
+    <t>installment</t>
+  </si>
+  <si>
+    <t>out_prncp</t>
+  </si>
+  <si>
+    <t>out_prncp_inv</t>
+  </si>
+  <si>
+    <t>total_pymnt</t>
+  </si>
+  <si>
+    <t>total_pymnt_inv</t>
+  </si>
+  <si>
+    <t>total_rec_prncp</t>
+  </si>
+  <si>
+    <t>total_rec_int</t>
+  </si>
+  <si>
+    <t>total_rec_late_fee</t>
+  </si>
+  <si>
+    <t>recoveries</t>
+  </si>
+  <si>
+    <t>collection_recovery_fee</t>
+  </si>
+  <si>
+    <t>last_pymnt_d</t>
+  </si>
+  <si>
+    <t>last_pymnt_amnt</t>
+  </si>
+  <si>
+    <t>next_pymnt_d</t>
+  </si>
+  <si>
+    <t>last_credit_pull_d</t>
+  </si>
+  <si>
+    <t>collections_12_mths_ex_med</t>
+  </si>
+  <si>
+    <t>mths_since_last_major_derog</t>
+  </si>
+  <si>
+    <t>loans_finance</t>
+  </si>
+  <si>
+    <t>0 - 36 Months,1 - 60 months</t>
+  </si>
+  <si>
+    <t>emp_title</t>
+  </si>
+  <si>
+    <t>emp_length</t>
+  </si>
+  <si>
+    <t>zip_code</t>
+  </si>
+  <si>
+    <t>addr_state</t>
+  </si>
+  <si>
+    <t>loaners</t>
+  </si>
+  <si>
+    <t>home_ownership</t>
+  </si>
+  <si>
+    <t>annual_inc</t>
+  </si>
+  <si>
+    <t>dti</t>
+  </si>
+  <si>
+    <t>delinq_2yrs</t>
+  </si>
+  <si>
+    <t>annual_inc_joint</t>
+  </si>
+  <si>
+    <t>dti_joint</t>
+  </si>
+  <si>
+    <t>acc_now_delinq</t>
+  </si>
+  <si>
+    <t>loaners_finance</t>
+  </si>
+  <si>
+    <t>earliest_cr_line</t>
+  </si>
+  <si>
+    <t>inq_last_6mths</t>
+  </si>
+  <si>
+    <t>mths_since_last_delinq</t>
+  </si>
+  <si>
+    <t>mths_since_last_record</t>
+  </si>
+  <si>
+    <t>open_acc</t>
+  </si>
+  <si>
+    <t>pub_rec</t>
+  </si>
+  <si>
+    <t>revol_bal</t>
+  </si>
+  <si>
+    <t>revol_util</t>
+  </si>
+  <si>
+    <t>total_acc</t>
+  </si>
+  <si>
+    <t>tot_coll_amt</t>
+  </si>
+  <si>
+    <t>tot_cur_bal</t>
+  </si>
+  <si>
+    <t>open_acc_6m</t>
+  </si>
+  <si>
+    <t>open_il_6m</t>
+  </si>
+  <si>
+    <t>open_il_12m</t>
+  </si>
+  <si>
+    <t>open_il_24m</t>
+  </si>
+  <si>
+    <t>mths_since_rcnt_il</t>
+  </si>
+  <si>
+    <t>total_bal_il</t>
+  </si>
+  <si>
+    <t>il_util</t>
+  </si>
+  <si>
+    <t>open_rv_12m</t>
+  </si>
+  <si>
+    <t>open_rv_24m</t>
+  </si>
+  <si>
+    <t>max_bal_bc</t>
+  </si>
+  <si>
+    <t>all_util</t>
+  </si>
+  <si>
+    <t>total_rev_hi_lim</t>
+  </si>
+  <si>
+    <t>inq_fi</t>
+  </si>
+  <si>
+    <t>total_cu_tl</t>
+  </si>
+  <si>
+    <t>inq_last_12m</t>
+  </si>
+  <si>
+    <t>loaners_credit_history</t>
+  </si>
+  <si>
+    <t>לבדוק משמעות של שלילי</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="B1mmm\-yy"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -175,9 +474,25 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -191,66 +506,351 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Data Retrieval Protocol"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z75"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.43"/>
-    <col customWidth="1" min="2" max="2" width="17.86"/>
-    <col customWidth="1" min="8" max="8" width="17.0"/>
-    <col customWidth="1" min="11" max="11" width="19.0"/>
+    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -304,39 +904,1861 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2">
+        <v>887382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="10">
+        <v>887382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>103</v>
+      </c>
+      <c r="I5" s="8">
+        <v>39234</v>
+      </c>
+      <c r="J5" s="8">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="10">
+        <v>887382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="10">
+        <v>124470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="10">
+        <v>63145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="M15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="M17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18">
+        <v>1372</v>
+      </c>
+      <c r="I18">
+        <v>500</v>
+      </c>
+      <c r="J18">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19">
+        <v>1372</v>
+      </c>
+      <c r="I19">
+        <v>500</v>
+      </c>
+      <c r="J19">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20">
+        <v>9856</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="M21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>542</v>
+      </c>
+      <c r="I22">
+        <v>5.32</v>
+      </c>
+      <c r="J22">
+        <v>28.99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>68711</v>
+      </c>
+      <c r="I23">
+        <v>15.67</v>
+      </c>
+      <c r="J23">
+        <v>1445.46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>248333</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>49372.86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>266245</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>49372.86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>509124</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>57777.579870165398</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>506619</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>57777.58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>260228</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>35000.03</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29">
+        <v>324636</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>24205.62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <v>6200</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>358.68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31">
+        <v>23055</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>33520.269999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32">
+        <v>20721</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>7002.19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33">
+        <v>98</v>
+      </c>
+      <c r="I33" s="8">
+        <v>39417</v>
+      </c>
+      <c r="J33" s="8">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34">
+        <v>232452</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>36475.589999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="I35" s="8">
+        <v>39417</v>
+      </c>
+      <c r="J35" s="8">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36">
+        <v>103</v>
+      </c>
+      <c r="I36" s="8">
+        <v>39203</v>
+      </c>
+      <c r="J36" s="8">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37">
+        <v>12</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38">
+        <v>168</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39">
+        <v>299272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44">
+        <v>49384</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>9500000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45">
+        <v>4086</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46">
+        <v>29</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47">
+        <v>308</v>
+      </c>
+      <c r="I47">
+        <v>17950</v>
+      </c>
+      <c r="J47">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48">
+        <v>449</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>43.86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49">
+        <v>8</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50">
+        <v>697</v>
+      </c>
+      <c r="I50" s="8">
+        <v>16072</v>
+      </c>
+      <c r="J50" s="8">
+        <v>41214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51">
+        <v>28</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52">
+        <v>155</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53">
+        <v>123</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54">
+        <v>77</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55">
+        <v>32</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56">
+        <v>73740</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>2904836</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57">
+        <v>1356</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>892.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F58">
+        <v>135</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59">
+        <v>10325</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>9152545</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60">
+        <v>327342</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>8000078</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F61">
+        <v>13</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F62">
+        <v>35</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F63">
+        <v>12</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F64">
+        <v>17</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F65">
+        <v>201</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66">
+        <v>17030</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>878459</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67">
+        <v>1272</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>223.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F68">
+        <v>18</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69">
+        <v>28</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70">
+        <v>10707</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>127305</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71">
+        <v>1128</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>151.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>119</v>
+      </c>
+      <c r="B72" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72">
+        <v>21251</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>9999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" t="s">
+        <v>123</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F73">
+        <v>18</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F74">
+        <v>33</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>122</v>
+      </c>
+      <c r="B75" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F75">
+        <v>29</v>
+      </c>
+      <c r="I75">
+        <v>-4</v>
+      </c>
+      <c r="J75">
+        <v>32</v>
+      </c>
+      <c r="M75" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D1000">
-      <formula1>Sheet2!$B$3:$B$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E1000">
-      <formula1>Sheet2!$C$3:$C$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="L1:L1000">
-      <formula1>Sheet2!$D$3:$D$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C1000">
-      <formula1>Sheet2!$A$3:$A$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="K2:K1000">
-      <formula1>Sheet2!$E$3:$E$6</formula1>
-    </dataValidation>
-  </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1">
+          <x14:formula1>
+            <xm:f>[1]Sheet2!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C18:C20 C23:C32 C34 C37:C38 C44:C49 C51:C75</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1">
+          <x14:formula1>
+            <xm:f>[1]Sheet2!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>E18:E20 E23:E32 E34 E37:E38 E44:E45 E47:E48 E51:E55 E73:E75 E58:E59 E61:E66 E68:E70</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1">
+          <x14:formula1>
+            <xm:f>[1]Sheet2!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>D18:D20 D23:D32 D34 D37:D38 D44:D49 D51:D75</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -353,7 +2775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -370,7 +2792,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -387,7 +2809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -404,7 +2826,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
@@ -421,7 +2843,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>34</v>
       </c>
@@ -429,32 +2851,32 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -462,6 +2884,6 @@
       <c r="E14" s="6"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/Data Retrieval Protocol.xlsx
+++ b/docs/Data Retrieval Protocol.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="602"/>
   </bookViews>
   <sheets>
     <sheet name="Data Retrieval Protocol" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="140">
   <si>
     <t>Value Type</t>
   </si>
@@ -187,9 +187,6 @@
     <t>Month+year</t>
   </si>
   <si>
-    <t>0 - Individual , 1 - Joint</t>
-  </si>
-  <si>
     <t>grade</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
     <t>loans_lc_rating</t>
   </si>
   <si>
-    <t>A-G</t>
-  </si>
-  <si>
     <t>0 - W , 1 - F</t>
   </si>
   <si>
@@ -398,6 +392,57 @@
   </si>
   <si>
     <t>לבדוק משמעות של שלילי</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>100% Unique - Not Relevant Information</t>
+  </si>
+  <si>
+    <t>After definition of Outcome variable - not relevant anymore</t>
+  </si>
+  <si>
+    <t>High percentage of unique values</t>
+  </si>
+  <si>
+    <t>Only one unique value</t>
+  </si>
+  <si>
+    <t>0 - Individual , 1 - Joint , We removed all the joint applications than have only one unique value</t>
+  </si>
+  <si>
+    <t>We removed all the joint applications therefore not relevant anymore</t>
+  </si>
+  <si>
+    <t>A-G , Confounder of our outcome variable</t>
+  </si>
+  <si>
+    <t>Confounder of our outcome variable</t>
+  </si>
+  <si>
+    <t>Influenced by confounder variable</t>
+  </si>
+  <si>
+    <t>Not relevant to the outcome</t>
+  </si>
+  <si>
+    <t>Contains only first 3 digits we can’t extract any additional information</t>
+  </si>
+  <si>
+    <t>Clean installment calculation: loan_amount/term</t>
+  </si>
+  <si>
+    <t>loans_dataset</t>
+  </si>
+  <si>
+    <t>loan_installment</t>
+  </si>
+  <si>
+    <t>default(Outcome)</t>
+  </si>
+  <si>
+    <t>full_state</t>
   </si>
 </sst>
 </file>
@@ -453,15 +498,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="177"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,11 +520,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -509,12 +547,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -534,12 +571,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -836,10 +876,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z75"/>
+  <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -848,6 +888,7 @@
     <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="13" max="13" width="53.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
@@ -904,24 +945,27 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:26" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="10">
         <v>887382</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -943,6 +987,9 @@
       <c r="F3" s="10">
         <v>887382</v>
       </c>
+      <c r="M3" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -990,24 +1037,27 @@
         <v>42339</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:26" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="10">
         <v>10</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1049,6 +1099,9 @@
       <c r="F8" s="10">
         <v>887382</v>
       </c>
+      <c r="M8" s="10" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="9" spans="1:26" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -1069,24 +1122,27 @@
       <c r="F9" s="10">
         <v>124470</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="M9" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>14</v>
       </c>
     </row>
@@ -1109,6 +1165,9 @@
       <c r="F11" s="10">
         <v>63145</v>
       </c>
+      <c r="M11" s="10" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="12" spans="1:26" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
@@ -1129,12 +1188,15 @@
       <c r="F12" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="M12" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -1146,82 +1208,88 @@
       <c r="E13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="10">
         <v>2</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="10">
+        <v>3</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="F15" s="10">
+        <v>7</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F15">
-        <v>7</v>
-      </c>
-      <c r="M15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16">
+      <c r="F16" s="10">
         <v>35</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
         <v>57</v>
-      </c>
-      <c r="B17" t="s">
-        <v>58</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>37</v>
@@ -1236,15 +1304,15 @@
         <v>2</v>
       </c>
       <c r="M17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>20</v>
@@ -1267,10 +1335,10 @@
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>20</v>
@@ -1293,10 +1361,10 @@
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>20</v>
@@ -1319,10 +1387,10 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>37</v>
@@ -1337,379 +1405,421 @@
         <v>2</v>
       </c>
       <c r="M21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="10">
+        <v>542</v>
+      </c>
+      <c r="I22" s="10">
+        <v>5.32</v>
+      </c>
+      <c r="J22" s="10">
+        <v>28.99</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="10">
+        <v>68711</v>
+      </c>
+      <c r="I23" s="10">
+        <v>15.67</v>
+      </c>
+      <c r="J23" s="10">
+        <v>1445.46</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22">
-        <v>542</v>
-      </c>
-      <c r="I22">
-        <v>5.32</v>
-      </c>
-      <c r="J22">
-        <v>28.99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B24" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="10">
+        <v>248333</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10">
+        <v>49372.86</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23">
-        <v>68711</v>
-      </c>
-      <c r="I23">
-        <v>15.67</v>
-      </c>
-      <c r="J23">
-        <v>1445.46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B25" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="10">
+        <v>266245</v>
+      </c>
+      <c r="I25" s="10">
+        <v>0</v>
+      </c>
+      <c r="J25" s="10">
+        <v>49372.86</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24">
-        <v>248333</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>49372.86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B26" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="10">
+        <v>509124</v>
+      </c>
+      <c r="I26" s="10">
+        <v>0</v>
+      </c>
+      <c r="J26" s="10">
+        <v>57777.579870165398</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25">
-        <v>266245</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>49372.86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="10">
+        <v>506619</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0</v>
+      </c>
+      <c r="J27" s="10">
+        <v>57777.58</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26">
-        <v>509124</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>57777.579870165398</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B28" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="10">
+        <v>260228</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0</v>
+      </c>
+      <c r="J28" s="10">
+        <v>35000.03</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27">
-        <v>506619</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>57777.58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="10">
+        <v>324636</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0</v>
+      </c>
+      <c r="J29" s="10">
+        <v>24205.62</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28">
-        <v>260228</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>35000.03</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="10">
+        <v>6200</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0</v>
+      </c>
+      <c r="J30" s="10">
+        <v>358.68</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29">
-        <v>324636</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>24205.62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B31" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="10">
+        <v>23055</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0</v>
+      </c>
+      <c r="J31" s="10">
+        <v>33520.269999999997</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30">
-        <v>6200</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>358.68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B32" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="10">
+        <v>20721</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0</v>
+      </c>
+      <c r="J32" s="10">
+        <v>7002.19</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31">
-        <v>23055</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>33520.269999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B33" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="10">
+        <v>98</v>
+      </c>
+      <c r="I33" s="14">
+        <v>39417</v>
+      </c>
+      <c r="J33" s="14">
+        <v>42370</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32">
-        <v>20721</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>7002.19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B34" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="10">
+        <v>232452</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0</v>
+      </c>
+      <c r="J34" s="10">
+        <v>36475.589999999997</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="B35" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D35" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E35" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F33">
-        <v>98</v>
-      </c>
-      <c r="I33" s="8">
+      <c r="F35" s="10">
+        <v>100</v>
+      </c>
+      <c r="I35" s="14">
         <v>39417</v>
       </c>
-      <c r="J33" s="8">
-        <v>42370</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="J35" s="14">
+        <v>42430</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>77</v>
       </c>
-      <c r="B34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34">
-        <v>232452</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>36475.589999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35">
-        <v>100</v>
-      </c>
-      <c r="I35" s="8">
-        <v>39417</v>
-      </c>
-      <c r="J35" s="8">
-        <v>42430</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>79</v>
-      </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>24</v>
@@ -1730,12 +1840,12 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
         <v>80</v>
-      </c>
-      <c r="B37" t="s">
-        <v>82</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>20</v>
@@ -1756,12 +1866,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>20</v>
@@ -1782,32 +1892,35 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="3" t="s">
+    <row r="39" spans="1:13" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="10">
         <v>299272</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M39" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>6</v>
@@ -1822,32 +1935,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:13" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="10">
         <v>935</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M41" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>6</v>
@@ -1862,12 +1978,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>6</v>
@@ -1882,12 +1998,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>20</v>
@@ -1908,12 +2024,12 @@
         <v>9500000</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>20</v>
@@ -1934,12 +2050,12 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>20</v>
@@ -1960,64 +2076,70 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47">
+    <row r="47" spans="1:13" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="10">
         <v>308</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="10">
         <v>17950</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="10">
         <v>500000</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="M47" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B48" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48">
+      <c r="C48" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="10">
         <v>449</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="10">
         <v>3</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="10">
         <v>43.86</v>
+      </c>
+      <c r="M48" s="10" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>20</v>
@@ -2040,10 +2162,10 @@
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>24</v>
@@ -2066,10 +2188,10 @@
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>20</v>
@@ -2092,10 +2214,10 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>20</v>
@@ -2118,10 +2240,10 @@
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>20</v>
@@ -2144,10 +2266,10 @@
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>20</v>
@@ -2170,10 +2292,10 @@
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>20</v>
@@ -2196,10 +2318,10 @@
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>20</v>
@@ -2222,10 +2344,10 @@
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>20</v>
@@ -2248,10 +2370,10 @@
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>20</v>
@@ -2274,10 +2396,10 @@
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>20</v>
@@ -2300,10 +2422,10 @@
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B60" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>20</v>
@@ -2326,10 +2448,10 @@
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>20</v>
@@ -2352,10 +2474,10 @@
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>20</v>
@@ -2378,10 +2500,10 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>20</v>
@@ -2404,10 +2526,10 @@
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>20</v>
@@ -2430,10 +2552,10 @@
     </row>
     <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>20</v>
@@ -2456,10 +2578,10 @@
     </row>
     <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B66" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>20</v>
@@ -2482,10 +2604,10 @@
     </row>
     <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B67" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>20</v>
@@ -2508,10 +2630,10 @@
     </row>
     <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B68" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>20</v>
@@ -2534,10 +2656,10 @@
     </row>
     <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B69" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>20</v>
@@ -2560,10 +2682,10 @@
     </row>
     <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B70" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>20</v>
@@ -2586,10 +2708,10 @@
     </row>
     <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B71" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>20</v>
@@ -2612,10 +2734,10 @@
     </row>
     <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B72" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>20</v>
@@ -2638,10 +2760,10 @@
     </row>
     <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B73" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>20</v>
@@ -2664,10 +2786,10 @@
     </row>
     <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74" t="s">
         <v>121</v>
-      </c>
-      <c r="B74" t="s">
-        <v>123</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>20</v>
@@ -2690,10 +2812,10 @@
     </row>
     <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B75" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>20</v>
@@ -2714,7 +2836,76 @@
         <v>32</v>
       </c>
       <c r="M75" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76">
+        <v>2190</v>
+      </c>
+      <c r="I76">
+        <v>13.89</v>
+      </c>
+      <c r="J76">
+        <v>972.22</v>
+      </c>
+      <c r="M76" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2722,24 +2913,12 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1">
           <x14:formula1>
             <xm:f>[1]Sheet2!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C18:C20 C23:C32 C34 C37:C38 C44:C49 C51:C75</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1">
-          <x14:formula1>
-            <xm:f>[1]Sheet2!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>E18:E20 E23:E32 E34 E37:E38 E44:E45 E47:E48 E51:E55 E73:E75 E58:E59 E61:E66 E68:E70</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1">
-          <x14:formula1>
-            <xm:f>[1]Sheet2!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>D18:D20 D23:D32 D34 D37:D38 D44:D49 D51:D75</xm:sqref>
+          <xm:sqref>C44:D49 C51:D75 C18:E20 C23:E32 C34:E34 C37:E38 E44:E45 E47:E48 E51:E55 E73:E75 E58:E59 E61:E66 E68:E70 C76:E76</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
